--- a/data/trans_orig/IP18E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP18E-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24119755-BA64-4E09-8E19-02A1708894E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B229874D-2A4F-44C5-BA0B-38C672F5130E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F3F84B04-B019-4E8B-A802-8A71A8164824}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FE6FBFC5-0BA1-4821-A2ED-AC2ABE03147C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="412">
   <si>
     <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2007 (Tasa respuesta: 85,6%)</t>
   </si>
@@ -119,1135 +119,1144 @@
     <t>0,95%</t>
   </si>
   <si>
-    <t>4,77%</t>
+    <t>4,78%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>6,04%</t>
+    <t>6,14%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>3,57%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
   </si>
   <si>
     <t>99,05%</t>
   </si>
   <si>
-    <t>95,23%</t>
+    <t>95,22%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
     <t>93,96%</t>
   </si>
   <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2012 (Tasa respuesta: 93,9%)</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2016 (Tasa respuesta: 90,78%)</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2012 (Tasa respuesta: 93,9%)</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2015 (Tasa respuesta: 90,78%)</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
   </si>
   <si>
     <t>6,13%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
+    <t>11,02%</t>
   </si>
   <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>6,18%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
   </si>
   <si>
     <t>93,84%</t>
   </si>
   <si>
-    <t>89,71%</t>
+    <t>89,74%</t>
   </si>
   <si>
     <t>96,79%</t>
@@ -1256,19 +1265,16 @@
     <t>84,67%</t>
   </si>
   <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
   </si>
   <si>
     <t>89,79%</t>
   </si>
   <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>85,02%</t>
   </si>
 </sst>
 </file>
@@ -1680,7 +1686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655E1018-AEEC-4C7B-AD62-489AD7E66E1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548ACB20-963F-4482-841C-C9F0D555B9CA}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2135,10 +2141,10 @@
         <v>29</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2204,10 +2210,10 @@
         <v>71345</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>18</v>
@@ -2219,10 +2225,10 @@
         <v>69611</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>18</v>
@@ -2234,13 +2240,13 @@
         <v>140955</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,7 +2302,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2314,7 +2320,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2329,7 +2335,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2344,7 +2350,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,10 +2365,10 @@
         <v>10790</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>43</v>
@@ -2392,10 +2398,10 @@
         <v>47</v>
       </c>
       <c r="P15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2416,13 @@
         <v>8153</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -2425,13 +2431,13 @@
         <v>7110</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -2440,13 +2446,13 @@
         <v>15263</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,13 +2467,13 @@
         <v>384448</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H17" s="7">
         <v>525</v>
@@ -2476,13 +2482,13 @@
         <v>348883</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M17" s="7">
         <v>1107</v>
@@ -2491,13 +2497,13 @@
         <v>733332</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,7 +2559,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2565,13 +2571,13 @@
         <v>685</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2580,13 +2586,13 @@
         <v>683</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2595,13 +2601,13 @@
         <v>1368</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,13 +2622,13 @@
         <v>8770</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -2631,13 +2637,13 @@
         <v>8793</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -2646,13 +2652,13 @@
         <v>17563</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,13 +2673,13 @@
         <v>13607</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H21" s="7">
         <v>16</v>
@@ -2682,13 +2688,13 @@
         <v>10551</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M21" s="7">
         <v>37</v>
@@ -2697,13 +2703,13 @@
         <v>24157</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,13 +2724,13 @@
         <v>114116</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H22" s="7">
         <v>192</v>
@@ -2733,13 +2739,13 @@
         <v>132593</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M22" s="7">
         <v>362</v>
@@ -2748,13 +2754,13 @@
         <v>246709</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,13 +2828,13 @@
         <v>685</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -2837,13 +2843,13 @@
         <v>683</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -2852,13 +2858,13 @@
         <v>1368</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,7 +2879,7 @@
         <v>20246</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>107</v>
@@ -2909,7 +2915,7 @@
         <v>113</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,13 +2930,13 @@
         <v>21760</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H26" s="7">
         <v>27</v>
@@ -2939,10 +2945,10 @@
         <v>17661</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>119</v>
@@ -3087,7 +3093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE1BD8E-364B-4170-80D6-B47DB5605F10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAAF955-72D8-4759-9189-73CC3DE5D1D2}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3590,13 +3596,13 @@
         <v>654</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,10 +3617,10 @@
         <v>77639</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>18</v>
@@ -3626,10 +3632,10 @@
         <v>86435</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>18</v>
@@ -3703,7 +3709,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3769,10 +3775,10 @@
         <v>155</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H15" s="7">
         <v>11</v>
@@ -3781,13 +3787,13 @@
         <v>7767</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M15" s="7">
         <v>23</v>
@@ -3796,13 +3802,13 @@
         <v>15647</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,13 +3823,13 @@
         <v>10550</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -3832,13 +3838,13 @@
         <v>8875</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -3847,13 +3853,13 @@
         <v>19425</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,13 +3874,13 @@
         <v>449400</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H17" s="7">
         <v>589</v>
@@ -3883,13 +3889,13 @@
         <v>406266</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M17" s="7">
         <v>1231</v>
@@ -3898,13 +3904,13 @@
         <v>855666</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,7 +3966,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3978,7 +3984,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3987,13 +3993,13 @@
         <v>656</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4002,13 +4008,13 @@
         <v>656</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,13 +4029,13 @@
         <v>4771</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -4038,13 +4044,13 @@
         <v>4887</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -4053,13 +4059,13 @@
         <v>9658</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,13 +4080,13 @@
         <v>14145</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H21" s="7">
         <v>16</v>
@@ -4089,13 +4095,13 @@
         <v>11409</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M21" s="7">
         <v>37</v>
@@ -4104,13 +4110,13 @@
         <v>25555</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,13 +4131,13 @@
         <v>146120</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H22" s="7">
         <v>195</v>
@@ -4140,13 +4146,13 @@
         <v>138114</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M22" s="7">
         <v>400</v>
@@ -4155,13 +4161,13 @@
         <v>284234</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,7 +4241,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -4244,7 +4250,7 @@
         <v>1581</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
@@ -4259,13 +4265,13 @@
         <v>1581</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,13 +4286,13 @@
         <v>12651</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -4295,13 +4301,13 @@
         <v>13332</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>215</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -4310,13 +4316,13 @@
         <v>25983</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,13 +4337,13 @@
         <v>25349</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -4346,13 +4352,13 @@
         <v>20285</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M26" s="7">
         <v>65</v>
@@ -4364,10 +4370,10 @@
         <v>112</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>119</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,13 +4388,13 @@
         <v>673800</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H27" s="7">
         <v>909</v>
@@ -4397,13 +4403,13 @@
         <v>630816</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="M27" s="7">
         <v>1866</v>
@@ -4412,13 +4418,13 @@
         <v>1304616</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,7 +4500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A9AF4A-D185-4CCE-9B2E-06206768B52A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBB1A77-0764-4974-96FD-C5CF64933A9F}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4511,7 +4517,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4851,7 +4857,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>234</v>
+        <v>144</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4866,7 +4872,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4881,7 +4887,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>235</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,7 +4902,7 @@
         <v>644</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
@@ -4917,7 +4923,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -4932,7 +4938,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,7 +4959,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -4962,13 +4968,13 @@
         <v>1332</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -4977,13 +4983,13 @@
         <v>1894</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,10 +5004,10 @@
         <v>61290</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>18</v>
@@ -5013,10 +5019,10 @@
         <v>53980</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>18</v>
@@ -5028,10 +5034,10 @@
         <v>115270</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>250</v>
+        <v>131</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>251</v>
@@ -5090,7 +5096,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5108,7 +5114,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5168,13 +5174,13 @@
         <v>5411</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>107</v>
+        <v>258</v>
       </c>
       <c r="M15" s="7">
         <v>14</v>
@@ -5183,13 +5189,13 @@
         <v>8554</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>238</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>255</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5204,13 +5210,13 @@
         <v>11480</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -5219,13 +5225,13 @@
         <v>12207</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -5234,13 +5240,13 @@
         <v>23687</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>156</v>
+        <v>265</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>56</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>49</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5255,13 +5261,13 @@
         <v>421787</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H17" s="7">
         <v>633</v>
@@ -5270,13 +5276,13 @@
         <v>419257</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
         <v>1231</v>
@@ -5285,13 +5291,13 @@
         <v>841045</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>149</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,7 +5353,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5380,7 +5386,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5395,7 +5401,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5410,13 +5416,13 @@
         <v>5538</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -5425,13 +5431,13 @@
         <v>4659</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>274</v>
+        <v>29</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -5440,13 +5446,13 @@
         <v>10197</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>276</v>
+        <v>170</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>48</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5461,13 +5467,13 @@
         <v>18033</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -5476,13 +5482,13 @@
         <v>14870</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="M21" s="7">
         <v>49</v>
@@ -5491,13 +5497,13 @@
         <v>32903</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5512,13 +5518,13 @@
         <v>146581</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="H22" s="7">
         <v>201</v>
@@ -5527,13 +5533,13 @@
         <v>135098</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="M22" s="7">
         <v>412</v>
@@ -5542,13 +5548,13 @@
         <v>281679</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,7 +5628,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5637,7 +5643,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5667,13 +5673,13 @@
         <v>9326</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>136</v>
+        <v>303</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -5685,10 +5691,10 @@
         <v>27</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -5697,13 +5703,13 @@
         <v>19395</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>118</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,13 +5724,13 @@
         <v>30075</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>197</v>
+        <v>311</v>
       </c>
       <c r="H26" s="7">
         <v>43</v>
@@ -5733,13 +5739,13 @@
         <v>28409</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>304</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="M26" s="7">
         <v>89</v>
@@ -5748,13 +5754,13 @@
         <v>58484</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5775,13 @@
         <v>629659</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>311</v>
+        <v>61</v>
       </c>
       <c r="H27" s="7">
         <v>915</v>
@@ -5784,13 +5790,13 @@
         <v>608336</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="M27" s="7">
         <v>1811</v>
@@ -5799,13 +5805,13 @@
         <v>1237994</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>246</v>
+        <v>323</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,7 +5887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899BD7DA-2A44-47E2-B280-DABFB984B3CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAA2E3C-FFDD-4127-82FB-C28A0C8769F1}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5898,7 +5904,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6238,7 +6244,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -6247,13 +6253,13 @@
         <v>391</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -6262,13 +6268,13 @@
         <v>391</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,7 +6295,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6304,7 +6310,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6319,7 +6325,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>285</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6340,7 +6346,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6355,7 +6361,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -6370,7 +6376,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6388,7 +6394,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>20</v>
@@ -6400,10 +6406,10 @@
         <v>6183</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>325</v>
+        <v>175</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>18</v>
@@ -6415,10 +6421,10 @@
         <v>15039</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>327</v>
+        <v>149</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>18</v>
@@ -6477,7 +6483,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6495,7 +6501,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6510,7 +6516,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6525,7 +6531,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6540,13 +6546,13 @@
         <v>598</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="H15" s="7">
         <v>8</v>
@@ -6555,13 +6561,13 @@
         <v>6926</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>333</v>
+        <v>142</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -6570,13 +6576,13 @@
         <v>7524</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>118</v>
+        <v>342</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,13 +6597,13 @@
         <v>2114</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -6606,13 +6612,13 @@
         <v>2172</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -6621,13 +6627,13 @@
         <v>4285</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>214</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6642,13 +6648,13 @@
         <v>85270</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H17" s="7">
         <v>87</v>
@@ -6657,13 +6663,13 @@
         <v>56912</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M17" s="7">
         <v>217</v>
@@ -6672,13 +6678,13 @@
         <v>142181</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6734,7 +6740,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6752,7 +6758,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6767,7 +6773,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6782,7 +6788,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6797,13 +6803,13 @@
         <v>2784</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -6812,13 +6818,13 @@
         <v>3566</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>361</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -6827,13 +6833,13 @@
         <v>6350</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6848,13 +6854,13 @@
         <v>2295</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -6863,13 +6869,13 @@
         <v>2268</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>370</v>
+        <v>107</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -6878,13 +6884,13 @@
         <v>4563</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6899,13 +6905,13 @@
         <v>24509</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -6914,13 +6920,13 @@
         <v>21506</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M22" s="7">
         <v>67</v>
@@ -6929,13 +6935,13 @@
         <v>46015</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7009,7 +7015,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -7018,13 +7024,13 @@
         <v>391</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -7033,13 +7039,13 @@
         <v>391</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>157</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7054,13 +7060,13 @@
         <v>3382</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>24</v>
+        <v>392</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>388</v>
+        <v>77</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -7069,13 +7075,13 @@
         <v>10492</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>389</v>
+        <v>76</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -7084,13 +7090,13 @@
         <v>13874</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>272</v>
+        <v>395</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>392</v>
+        <v>338</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7105,13 +7111,13 @@
         <v>4409</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -7120,13 +7126,13 @@
         <v>4440</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>397</v>
+        <v>212</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -7135,13 +7141,13 @@
         <v>8849</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>107</v>
+        <v>402</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7156,13 +7162,13 @@
         <v>118634</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H27" s="7">
         <v>131</v>
@@ -7171,13 +7177,13 @@
         <v>84601</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M27" s="7">
         <v>307</v>
@@ -7186,13 +7192,13 @@
         <v>203235</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>409</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP18E-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP18E-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B229874D-2A4F-44C5-BA0B-38C672F5130E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F1A44D0-3D77-40C5-B763-33AB144405A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FE6FBFC5-0BA1-4821-A2ED-AC2ABE03147C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CCCEE813-49AE-4DDD-ABFC-414333052468}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="411">
   <si>
     <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2007 (Tasa respuesta: 85,6%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Otros</t>
@@ -80,1201 +80,1198 @@
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>Médico privado/particular</t>
   </si>
   <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
     <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
   </si>
   <si>
     <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
   </si>
   <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,35%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
     <t>0,17%</t>
   </si>
   <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
     <t>2,67%</t>
   </si>
   <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2012 (Tasa respuesta: 93,9%)</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2016 (Tasa respuesta: 90,78%)</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
   </si>
   <si>
     <t>94,55%</t>
   </si>
   <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2012 (Tasa respuesta: 93,9%)</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
   </si>
   <si>
     <t>95,27%</t>
   </si>
   <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2016 (Tasa respuesta: 90,78%)</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
+    <t>97,16%</t>
   </si>
   <si>
     <t>3,01%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
   </si>
   <si>
     <t>10,6%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
   </si>
   <si>
     <t>86,15%</t>
   </si>
   <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
   </si>
   <si>
     <t>86,73%</t>
   </si>
   <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>2,27%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>4,5%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
+    <t>6,01%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
   </si>
   <si>
     <t>94,11%</t>
   </si>
   <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
   </si>
   <si>
     <t>94,08%</t>
   </si>
   <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
   </si>
   <si>
     <t>Menores en función de la organización para la que trabaja el médico que le atendió en 2023 (Tasa respuesta: 17,76%)</t>
   </si>
   <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
     <t>13,49%</t>
   </si>
   <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
     <t>5,94%</t>
   </si>
   <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
   </si>
   <si>
     <t>2,76%</t>
   </si>
   <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>1,06%</t>
   </si>
   <si>
     <t>6,67%</t>
   </si>
   <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
   </si>
 </sst>
 </file>
@@ -1686,8 +1683,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548ACB20-963F-4482-841C-C9F0D555B9CA}">
-  <dimension ref="A1:Q29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A83C6F-AE67-40F4-A1EB-1B800FD0CC04}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1821,12 +1818,14 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -1844,62 +1843,64 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>686</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1786</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1919,12 +1920,14 @@
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>14</v>
@@ -1942,56 +1945,58 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="D7" s="7">
-        <v>726</v>
+        <v>69611</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="I7" s="7">
+        <v>71345</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="N7" s="7">
-        <v>726</v>
+        <v>140955</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,52 +2005,54 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="D8" s="7">
-        <v>726</v>
+        <v>70711</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="I8" s="7">
+        <v>72031</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="N8" s="7">
-        <v>726</v>
+        <v>142741</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2063,7 +2070,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2078,7 +2085,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -2093,160 +2100,160 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7">
         <v>15</v>
       </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
       <c r="D10" s="7">
-        <v>686</v>
+        <v>9656</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>1100</v>
+        <v>10790</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="N10" s="7">
-        <v>1786</v>
+        <v>20446</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>7110</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="7">
         <v>12</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>8153</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="7">
         <v>23</v>
       </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>15263</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7">
-        <v>107</v>
+        <v>525</v>
       </c>
       <c r="D12" s="7">
-        <v>71345</v>
+        <v>348883</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="H12" s="7">
-        <v>103</v>
+        <v>582</v>
       </c>
       <c r="I12" s="7">
-        <v>69611</v>
+        <v>384448</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="M12" s="7">
-        <v>210</v>
+        <v>1107</v>
       </c>
       <c r="N12" s="7">
-        <v>140955</v>
+        <v>733332</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,255 +2262,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>108</v>
+        <v>551</v>
       </c>
       <c r="D13" s="7">
-        <v>72031</v>
+        <v>365650</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H13" s="7">
-        <v>105</v>
+        <v>609</v>
       </c>
       <c r="I13" s="7">
-        <v>70711</v>
+        <v>403391</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M13" s="7">
-        <v>213</v>
+        <v>1160</v>
       </c>
       <c r="N13" s="7">
-        <v>142741</v>
+        <v>769041</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>685</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>1368</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" s="7">
-        <v>10790</v>
+        <v>8793</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I15" s="7">
-        <v>9656</v>
+        <v>8770</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="M15" s="7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N15" s="7">
-        <v>20446</v>
+        <v>17563</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="7">
         <v>16</v>
       </c>
-      <c r="C16" s="7">
-        <v>12</v>
-      </c>
       <c r="D16" s="7">
-        <v>8153</v>
+        <v>10551</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I16" s="7">
-        <v>7110</v>
+        <v>13607</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="N16" s="7">
-        <v>15263</v>
+        <v>24157</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C17" s="7">
-        <v>582</v>
+        <v>192</v>
       </c>
       <c r="D17" s="7">
-        <v>384448</v>
+        <v>132593</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
-        <v>525</v>
+        <v>170</v>
       </c>
       <c r="I17" s="7">
-        <v>348883</v>
+        <v>114116</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
-        <v>1107</v>
+        <v>362</v>
       </c>
       <c r="N17" s="7">
-        <v>733332</v>
+        <v>246709</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,54 +2519,54 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>609</v>
+        <v>222</v>
       </c>
       <c r="D18" s="7">
-        <v>403391</v>
+        <v>152620</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H18" s="7">
-        <v>551</v>
+        <v>205</v>
       </c>
       <c r="I18" s="7">
-        <v>365650</v>
+        <v>137178</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M18" s="7">
-        <v>1160</v>
+        <v>427</v>
       </c>
       <c r="N18" s="7">
-        <v>769041</v>
+        <v>289798</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2568,31 +2575,31 @@
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2601,166 +2608,166 @@
         <v>1368</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D20" s="7">
-        <v>8770</v>
+        <v>19550</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I20" s="7">
-        <v>8793</v>
+        <v>20246</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="N20" s="7">
-        <v>17563</v>
+        <v>39796</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C21" s="7">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D21" s="7">
-        <v>13607</v>
+        <v>17661</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="H21" s="7">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I21" s="7">
-        <v>10551</v>
+        <v>21760</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="M21" s="7">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="N21" s="7">
-        <v>24157</v>
+        <v>39421</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
-        <v>170</v>
+        <v>820</v>
       </c>
       <c r="D22" s="7">
-        <v>114116</v>
+        <v>551087</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="H22" s="7">
-        <v>192</v>
+        <v>859</v>
       </c>
       <c r="I22" s="7">
-        <v>132593</v>
+        <v>569909</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
-        <v>362</v>
+        <v>1679</v>
       </c>
       <c r="N22" s="7">
-        <v>246709</v>
+        <v>1120995</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,318 +2776,60 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>205</v>
+        <v>878</v>
       </c>
       <c r="D23" s="7">
-        <v>137178</v>
+        <v>588981</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H23" s="7">
-        <v>222</v>
+        <v>922</v>
       </c>
       <c r="I23" s="7">
-        <v>152620</v>
+        <v>612599</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M23" s="7">
-        <v>427</v>
+        <v>1800</v>
       </c>
       <c r="N23" s="7">
-        <v>289798</v>
+        <v>1201580</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>1</v>
-      </c>
-      <c r="D24" s="7">
-        <v>685</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1</v>
-      </c>
-      <c r="I24" s="7">
-        <v>683</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M24" s="7">
-        <v>2</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1368</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7">
-        <v>29</v>
-      </c>
-      <c r="D25" s="7">
-        <v>20246</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" s="7">
-        <v>30</v>
-      </c>
-      <c r="I25" s="7">
-        <v>19550</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M25" s="7">
-        <v>59</v>
-      </c>
-      <c r="N25" s="7">
-        <v>39796</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="7">
-        <v>33</v>
-      </c>
-      <c r="D26" s="7">
-        <v>21760</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H26" s="7">
-        <v>27</v>
-      </c>
-      <c r="I26" s="7">
-        <v>17661</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M26" s="7">
-        <v>60</v>
-      </c>
-      <c r="N26" s="7">
-        <v>39421</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="7">
-        <v>860</v>
-      </c>
-      <c r="D27" s="7">
-        <v>570635</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H27" s="7">
-        <v>820</v>
-      </c>
-      <c r="I27" s="7">
-        <v>551087</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1680</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1121722</v>
-      </c>
-      <c r="O27" s="7" t="s">
+      <c r="A24" t="s">
         <v>129</v>
       </c>
-      <c r="P27" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="7">
-        <v>923</v>
-      </c>
-      <c r="D28" s="7">
-        <v>613326</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="7">
-        <v>878</v>
-      </c>
-      <c r="I28" s="7">
-        <v>588981</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="7">
-        <v>1801</v>
-      </c>
-      <c r="N28" s="7">
-        <v>1202307</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>132</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3093,8 +2842,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAAF955-72D8-4759-9189-73CC3DE5D1D2}">
-  <dimension ref="A1:Q29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9FB6A8-6918-4741-8766-9B2777B298DE}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3110,7 +2859,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3223,20 +2972,22 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3251,62 +3002,64 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -3321,84 +3074,88 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>654</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="D7" s="7">
-        <v>641</v>
+        <v>86435</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="I7" s="7">
+        <v>77639</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>234</v>
       </c>
       <c r="N7" s="7">
-        <v>641</v>
+        <v>164074</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,70 +3164,72 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="D8" s="7">
-        <v>641</v>
+        <v>87113</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="I8" s="7">
+        <v>78293</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>236</v>
       </c>
       <c r="N8" s="7">
-        <v>641</v>
+        <v>165406</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>926</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3485,175 +3244,175 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>926</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>7767</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="7">
         <v>12</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
       <c r="I10" s="7">
-        <v>678</v>
+        <v>7880</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="N10" s="7">
-        <v>678</v>
+        <v>15647</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>654</v>
+        <v>8875</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>10550</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="N11" s="7">
-        <v>654</v>
+        <v>19425</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7">
-        <v>109</v>
+        <v>589</v>
       </c>
       <c r="D12" s="7">
-        <v>77639</v>
+        <v>406266</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="H12" s="7">
-        <v>125</v>
+        <v>642</v>
       </c>
       <c r="I12" s="7">
-        <v>86435</v>
+        <v>449400</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="M12" s="7">
-        <v>234</v>
+        <v>1231</v>
       </c>
       <c r="N12" s="7">
-        <v>164074</v>
+        <v>855666</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,255 +3421,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>110</v>
+        <v>614</v>
       </c>
       <c r="D13" s="7">
-        <v>78293</v>
+        <v>423834</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H13" s="7">
-        <v>126</v>
+        <v>668</v>
       </c>
       <c r="I13" s="7">
-        <v>87113</v>
+        <v>467830</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M13" s="7">
-        <v>236</v>
+        <v>1282</v>
       </c>
       <c r="N13" s="7">
-        <v>165406</v>
+        <v>891664</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>926</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>926</v>
+        <v>656</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D15" s="7">
-        <v>7880</v>
+        <v>4887</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="H15" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I15" s="7">
-        <v>7767</v>
+        <v>4771</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="M15" s="7">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N15" s="7">
-        <v>15647</v>
+        <v>9658</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="7">
         <v>16</v>
       </c>
-      <c r="C16" s="7">
-        <v>14</v>
-      </c>
       <c r="D16" s="7">
-        <v>10550</v>
+        <v>11409</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>29</v>
+        <v>191</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="H16" s="7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I16" s="7">
-        <v>8875</v>
+        <v>14145</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N16" s="7">
-        <v>19425</v>
+        <v>25555</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C17" s="7">
-        <v>642</v>
+        <v>195</v>
       </c>
       <c r="D17" s="7">
-        <v>449400</v>
+        <v>138114</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="H17" s="7">
-        <v>589</v>
+        <v>205</v>
       </c>
       <c r="I17" s="7">
-        <v>406266</v>
+        <v>146120</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="M17" s="7">
-        <v>1231</v>
+        <v>400</v>
       </c>
       <c r="N17" s="7">
-        <v>855666</v>
+        <v>284234</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,255 +3678,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>668</v>
+        <v>219</v>
       </c>
       <c r="D18" s="7">
-        <v>467830</v>
+        <v>155066</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H18" s="7">
-        <v>614</v>
+        <v>233</v>
       </c>
       <c r="I18" s="7">
-        <v>423834</v>
+        <v>165036</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M18" s="7">
-        <v>1282</v>
+        <v>452</v>
       </c>
       <c r="N18" s="7">
-        <v>891664</v>
+        <v>320102</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>1581</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>656</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>656</v>
+        <v>1581</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D20" s="7">
-        <v>4771</v>
+        <v>13332</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="H20" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I20" s="7">
-        <v>4887</v>
+        <v>12651</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="M20" s="7">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="N20" s="7">
-        <v>9658</v>
+        <v>25983</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C21" s="7">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D21" s="7">
-        <v>14145</v>
+        <v>20285</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="H21" s="7">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I21" s="7">
-        <v>11409</v>
+        <v>25349</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="M21" s="7">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="N21" s="7">
-        <v>25555</v>
+        <v>45634</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>197</v>
+        <v>109</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
-        <v>205</v>
+        <v>909</v>
       </c>
       <c r="D22" s="7">
-        <v>146120</v>
+        <v>630816</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="H22" s="7">
-        <v>195</v>
+        <v>956</v>
       </c>
       <c r="I22" s="7">
-        <v>138114</v>
+        <v>673159</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="M22" s="7">
-        <v>400</v>
+        <v>1865</v>
       </c>
       <c r="N22" s="7">
-        <v>284234</v>
+        <v>1303975</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4176,318 +3935,60 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>233</v>
+        <v>959</v>
       </c>
       <c r="D23" s="7">
-        <v>165036</v>
+        <v>666014</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H23" s="7">
-        <v>219</v>
+        <v>1011</v>
       </c>
       <c r="I23" s="7">
-        <v>155066</v>
+        <v>711159</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M23" s="7">
-        <v>452</v>
+        <v>1970</v>
       </c>
       <c r="N23" s="7">
-        <v>320102</v>
+        <v>1377173</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H24" s="7">
-        <v>2</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1581</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M24" s="7">
-        <v>2</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1581</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7">
-        <v>19</v>
-      </c>
-      <c r="D25" s="7">
-        <v>12651</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H25" s="7">
-        <v>19</v>
-      </c>
-      <c r="I25" s="7">
-        <v>13332</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M25" s="7">
-        <v>38</v>
-      </c>
-      <c r="N25" s="7">
-        <v>25983</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="7">
-        <v>36</v>
-      </c>
-      <c r="D26" s="7">
-        <v>25349</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H26" s="7">
-        <v>29</v>
-      </c>
-      <c r="I26" s="7">
-        <v>20285</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M26" s="7">
-        <v>65</v>
-      </c>
-      <c r="N26" s="7">
-        <v>45633</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="7">
-        <v>957</v>
-      </c>
-      <c r="D27" s="7">
-        <v>673800</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H27" s="7">
-        <v>909</v>
-      </c>
-      <c r="I27" s="7">
-        <v>630816</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1866</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1304616</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="7">
-        <v>1012</v>
-      </c>
-      <c r="D28" s="7">
-        <v>711800</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="7">
-        <v>959</v>
-      </c>
-      <c r="I28" s="7">
-        <v>666014</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="7">
-        <v>1971</v>
-      </c>
-      <c r="N28" s="7">
-        <v>1377814</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>132</v>
+      <c r="A24" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4500,8 +4001,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBB1A77-0764-4974-96FD-C5CF64933A9F}">
-  <dimension ref="A1:Q29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FEA929-1A27-4D76-B4E1-CC6B8F123898}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4517,7 +4018,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4620,176 +4121,200 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>644</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>644</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1332</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>562</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>245</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1894</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>246</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="D7" s="7">
+        <v>53980</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="I7" s="7">
+        <v>61290</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>252</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="N7" s="7">
+        <v>115270</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,48 +4323,54 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="D8" s="7">
+        <v>55312</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="I8" s="7">
+        <v>62497</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>172</v>
+      </c>
+      <c r="N8" s="7">
+        <v>117808</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4857,7 +4388,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4872,7 +4403,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>236</v>
+        <v>37</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4887,160 +4418,160 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>50</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>644</v>
+        <v>5411</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>3144</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>259</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>644</v>
+        <v>8554</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7">
-        <v>562</v>
+        <v>12207</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>265</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I11" s="7">
-        <v>1332</v>
+        <v>11480</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="N11" s="7">
-        <v>1894</v>
+        <v>23687</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7">
-        <v>87</v>
+        <v>633</v>
       </c>
       <c r="D12" s="7">
-        <v>61290</v>
+        <v>419257</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>275</v>
       </c>
       <c r="H12" s="7">
-        <v>81</v>
+        <v>598</v>
       </c>
       <c r="I12" s="7">
-        <v>53980</v>
+        <v>421787</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>278</v>
       </c>
       <c r="M12" s="7">
-        <v>168</v>
+        <v>1231</v>
       </c>
       <c r="N12" s="7">
-        <v>115270</v>
+        <v>841045</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>131</v>
+        <v>280</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,54 +4580,54 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>89</v>
+        <v>661</v>
       </c>
       <c r="D13" s="7">
-        <v>62497</v>
+        <v>436875</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H13" s="7">
-        <v>83</v>
+        <v>621</v>
       </c>
       <c r="I13" s="7">
-        <v>55312</v>
+        <v>436410</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M13" s="7">
-        <v>172</v>
+        <v>1282</v>
       </c>
       <c r="N13" s="7">
-        <v>117808</v>
+        <v>873286</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5114,7 +4645,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5129,7 +4660,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5144,160 +4675,160 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>252</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7">
+        <v>7</v>
+      </c>
+      <c r="D15" s="7">
+        <v>4659</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H15" s="7">
+        <v>8</v>
+      </c>
+      <c r="I15" s="7">
+        <v>5538</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M15" s="7">
         <v>15</v>
       </c>
-      <c r="C15" s="7">
-        <v>5</v>
-      </c>
-      <c r="D15" s="7">
-        <v>3144</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H15" s="7">
-        <v>9</v>
-      </c>
-      <c r="I15" s="7">
-        <v>5411</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="M15" s="7">
-        <v>14</v>
-      </c>
       <c r="N15" s="7">
-        <v>8554</v>
+        <v>10197</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>259</v>
+        <v>73</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C16" s="7">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D16" s="7">
-        <v>11480</v>
+        <v>14870</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="H16" s="7">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I16" s="7">
-        <v>12207</v>
+        <v>18033</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>23</v>
+        <v>290</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="M16" s="7">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="N16" s="7">
-        <v>23687</v>
+        <v>32903</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C17" s="7">
-        <v>598</v>
+        <v>201</v>
       </c>
       <c r="D17" s="7">
-        <v>421787</v>
+        <v>135098</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="H17" s="7">
-        <v>633</v>
+        <v>211</v>
       </c>
       <c r="I17" s="7">
-        <v>419257</v>
+        <v>146581</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="M17" s="7">
-        <v>1231</v>
+        <v>412</v>
       </c>
       <c r="N17" s="7">
-        <v>841045</v>
+        <v>281679</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,54 +4837,54 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>621</v>
+        <v>230</v>
       </c>
       <c r="D18" s="7">
-        <v>436410</v>
+        <v>154627</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H18" s="7">
-        <v>661</v>
+        <v>246</v>
       </c>
       <c r="I18" s="7">
-        <v>436875</v>
+        <v>170152</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M18" s="7">
-        <v>1282</v>
+        <v>476</v>
       </c>
       <c r="N18" s="7">
-        <v>873286</v>
+        <v>324779</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5371,7 +4902,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5386,7 +4917,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>277</v>
+        <v>180</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5401,160 +4932,160 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D20" s="7">
-        <v>5538</v>
+        <v>10070</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>278</v>
+        <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>304</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="H20" s="7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I20" s="7">
-        <v>4659</v>
+        <v>9326</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="M20" s="7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N20" s="7">
-        <v>10197</v>
+        <v>19395</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>170</v>
+        <v>308</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C21" s="7">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D21" s="7">
-        <v>18033</v>
+        <v>28409</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="H21" s="7">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I21" s="7">
-        <v>14870</v>
+        <v>30075</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>288</v>
+        <v>155</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="M21" s="7">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="N21" s="7">
-        <v>32903</v>
+        <v>58484</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
-        <v>211</v>
+        <v>915</v>
       </c>
       <c r="D22" s="7">
-        <v>146581</v>
+        <v>608336</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="H22" s="7">
-        <v>201</v>
+        <v>896</v>
       </c>
       <c r="I22" s="7">
-        <v>135098</v>
+        <v>629659</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="M22" s="7">
-        <v>412</v>
+        <v>1811</v>
       </c>
       <c r="N22" s="7">
-        <v>281679</v>
+        <v>1237994</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,318 +5094,60 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>246</v>
+        <v>974</v>
       </c>
       <c r="D23" s="7">
-        <v>170152</v>
+        <v>646814</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H23" s="7">
-        <v>230</v>
+        <v>956</v>
       </c>
       <c r="I23" s="7">
-        <v>154627</v>
+        <v>669060</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M23" s="7">
-        <v>476</v>
+        <v>1930</v>
       </c>
       <c r="N23" s="7">
-        <v>324779</v>
+        <v>1315873</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7">
-        <v>14</v>
-      </c>
-      <c r="D25" s="7">
-        <v>9326</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H25" s="7">
-        <v>16</v>
-      </c>
-      <c r="I25" s="7">
-        <v>10070</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="M25" s="7">
-        <v>30</v>
-      </c>
-      <c r="N25" s="7">
-        <v>19395</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="7">
-        <v>46</v>
-      </c>
-      <c r="D26" s="7">
-        <v>30075</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H26" s="7">
-        <v>43</v>
-      </c>
-      <c r="I26" s="7">
-        <v>28409</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M26" s="7">
-        <v>89</v>
-      </c>
-      <c r="N26" s="7">
-        <v>58484</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="7">
-        <v>896</v>
-      </c>
-      <c r="D27" s="7">
-        <v>629659</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="7">
-        <v>915</v>
-      </c>
-      <c r="I27" s="7">
-        <v>608336</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1811</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1237994</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="7">
-        <v>956</v>
-      </c>
-      <c r="D28" s="7">
-        <v>669060</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="7">
-        <v>974</v>
-      </c>
-      <c r="I28" s="7">
-        <v>646814</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="7">
-        <v>1930</v>
-      </c>
-      <c r="N28" s="7">
-        <v>1315873</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>132</v>
+      <c r="A24" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5887,8 +5160,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAA2E3C-FFDD-4127-82FB-C28A0C8769F1}">
-  <dimension ref="A1:Q29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5D0300-3C31-4705-A7A1-882837C9FE1F}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5904,7 +5177,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6005,178 +5278,202 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>391</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>328</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>329</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>330</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>391</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>305</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>332</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>330</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>332</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>330</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6154</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>334</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>335</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="I7" s="7">
+        <v>9434</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>336</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="N7" s="7">
+        <v>15588</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>337</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>338</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6185,48 +5482,54 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D8" s="7">
+        <v>6545</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="I8" s="7">
+        <v>9434</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="N8" s="7">
+        <v>15979</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -6244,190 +5547,190 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>326</v>
+        <v>47</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>327</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>328</v>
+        <v>167</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>329</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>330</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>7809</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>339</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>342</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>8387</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>344</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>345</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>2112</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>347</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>2224</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>349</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>350</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>4336</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>352</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="D12" s="7">
-        <v>8856</v>
+        <v>56317</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>353</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>20</v>
+        <v>355</v>
       </c>
       <c r="H12" s="7">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="I12" s="7">
-        <v>6183</v>
+        <v>88447</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>175</v>
+        <v>356</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>358</v>
       </c>
       <c r="M12" s="7">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="N12" s="7">
-        <v>15039</v>
+        <v>144764</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>149</v>
+        <v>359</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6436,54 +5739,54 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="D13" s="7">
-        <v>8856</v>
+        <v>66238</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="I13" s="7">
-        <v>6574</v>
+        <v>91249</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M13" s="7">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="N13" s="7">
-        <v>15430</v>
+        <v>157487</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6501,7 +5804,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>336</v>
+        <v>267</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6516,7 +5819,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>52</v>
+        <v>362</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6531,160 +5834,160 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D15" s="7">
-        <v>598</v>
+        <v>3506</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>11</v>
+        <v>364</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="H15" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I15" s="7">
-        <v>6926</v>
+        <v>3059</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>142</v>
+        <v>367</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="M15" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N15" s="7">
-        <v>7524</v>
+        <v>6565</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C16" s="7">
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>2114</v>
+        <v>2346</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>345</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>2172</v>
+        <v>2265</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>4285</v>
+        <v>4611</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>214</v>
+        <v>375</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>350</v>
+        <v>49</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C17" s="7">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="D17" s="7">
-        <v>85270</v>
+        <v>21679</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="H17" s="7">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="I17" s="7">
-        <v>56912</v>
+        <v>25585</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c r="N17" s="7">
-        <v>142181</v>
+        <v>47265</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>146</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6693,72 +5996,72 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="D18" s="7">
-        <v>87982</v>
+        <v>27531</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H18" s="7">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="I18" s="7">
-        <v>66009</v>
+        <v>30909</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M18" s="7">
-        <v>233</v>
+        <v>84</v>
       </c>
       <c r="N18" s="7">
-        <v>153991</v>
+        <v>58441</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>360</v>
+        <v>113</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6773,175 +6076,175 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D20" s="7">
-        <v>2784</v>
+        <v>11315</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="H20" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I20" s="7">
-        <v>3566</v>
+        <v>3637</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>391</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="M20" s="7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N20" s="7">
-        <v>6350</v>
+        <v>14952</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C21" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D21" s="7">
-        <v>2295</v>
+        <v>4458</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>371</v>
+        <v>212</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="H21" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I21" s="7">
-        <v>2268</v>
+        <v>4490</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>107</v>
+        <v>398</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="M21" s="7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N21" s="7">
-        <v>4563</v>
+        <v>8948</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="D22" s="7">
-        <v>24509</v>
+        <v>84150</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="H22" s="7">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="I22" s="7">
-        <v>21506</v>
+        <v>123465</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>381</v>
+        <v>170</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="M22" s="7">
-        <v>67</v>
+        <v>307</v>
       </c>
       <c r="N22" s="7">
-        <v>46015</v>
+        <v>207615</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6950,318 +6253,60 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="D23" s="7">
-        <v>29588</v>
+        <v>100314</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H23" s="7">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="I23" s="7">
-        <v>27340</v>
+        <v>131592</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M23" s="7">
-        <v>84</v>
+        <v>341</v>
       </c>
       <c r="N23" s="7">
-        <v>56928</v>
+        <v>231906</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1</v>
-      </c>
-      <c r="I24" s="7">
-        <v>391</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="M24" s="7">
-        <v>1</v>
-      </c>
-      <c r="N24" s="7">
-        <v>391</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7">
-        <v>5</v>
-      </c>
-      <c r="D25" s="7">
-        <v>3382</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="7">
-        <v>14</v>
-      </c>
-      <c r="I25" s="7">
-        <v>10492</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="M25" s="7">
-        <v>19</v>
-      </c>
-      <c r="N25" s="7">
-        <v>13874</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="7">
-        <v>7</v>
-      </c>
-      <c r="D26" s="7">
-        <v>4409</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="H26" s="7">
-        <v>7</v>
-      </c>
-      <c r="I26" s="7">
-        <v>4440</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="M26" s="7">
-        <v>14</v>
-      </c>
-      <c r="N26" s="7">
-        <v>8849</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="7">
-        <v>176</v>
-      </c>
-      <c r="D27" s="7">
-        <v>118634</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="H27" s="7">
-        <v>131</v>
-      </c>
-      <c r="I27" s="7">
-        <v>84601</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="M27" s="7">
-        <v>307</v>
-      </c>
-      <c r="N27" s="7">
-        <v>203235</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="7">
-        <v>188</v>
-      </c>
-      <c r="D28" s="7">
-        <v>126425</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="7">
-        <v>153</v>
-      </c>
-      <c r="I28" s="7">
-        <v>99923</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="7">
-        <v>341</v>
-      </c>
-      <c r="N28" s="7">
-        <v>226348</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>132</v>
+      <c r="A24" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
